--- a/ShoulderPos.xlsx
+++ b/ShoulderPos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dqixol/Documents/LHCb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D111A080-1AF8-5840-9D3D-8643DF4A507E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB59741-6747-8748-AE8C-669CFD48FAF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{85FD9E08-5CA3-114F-BC9C-C98BDDDD9C75}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="21000" activeTab="1" xr2:uid="{85FD9E08-5CA3-114F-BC9C-C98BDDDD9C75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Chi2Pos</t>
   </si>
@@ -43,6 +44,21 @@
   </si>
   <si>
     <t>Shoulder: Gaussian</t>
+  </si>
+  <si>
+    <t>cuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaon I + </t>
+  </si>
+  <si>
+    <t>Kaon I -</t>
+  </si>
+  <si>
+    <t>Sig</t>
+  </si>
+  <si>
+    <t>Double Gaussian</t>
   </si>
 </sst>
 </file>
@@ -108,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -117,6 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8B1775-7E41-D242-99C8-494F51C7C2F0}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="230" workbookViewId="0">
+    <sheetView zoomScale="230" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -749,4 +766,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62862744-DD0C-0841-8BAC-5CE30CB0777C}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.79369999999999996</v>
+      </c>
+      <c r="B2">
+        <v>9.5367399999999998E-5</v>
+      </c>
+      <c r="C2">
+        <v>9.5367399999999998E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.8</v>
+      </c>
+      <c r="B3" s="6">
+        <v>9.5367399999999998E-5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9.5367399999999998E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.78</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8.3360600000000007E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8.3360600000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.76</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.239372</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.239372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.74</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9.5367399999999998E-5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9.5367399999999998E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.72</v>
+      </c>
+      <c r="B7" s="6">
+        <v>9.5367399999999998E-5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9.5367399999999998E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ShoulderPos.xlsx
+++ b/ShoulderPos.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dqixol/Documents/LHCb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB59741-6747-8748-AE8C-669CFD48FAF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DBE299-9D44-E544-9435-F85CA43F4475}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="21000" activeTab="1" xr2:uid="{85FD9E08-5CA3-114F-BC9C-C98BDDDD9C75}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{85FD9E08-5CA3-114F-BC9C-C98BDDDD9C75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Chi2Pos</t>
   </si>
@@ -59,6 +60,54 @@
   </si>
   <si>
     <t>Double Gaussian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function </t>
+  </si>
+  <si>
+    <t>Lorentz</t>
+  </si>
+  <si>
+    <t>double Gaussian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruijff funtion </t>
+  </si>
+  <si>
+    <t>N+</t>
+  </si>
+  <si>
+    <t>N-</t>
+  </si>
+  <si>
+    <t>Err N+</t>
+  </si>
+  <si>
+    <t>Err N-</t>
+  </si>
+  <si>
+    <t>Chi2 +</t>
+  </si>
+  <si>
+    <t>P +</t>
+  </si>
+  <si>
+    <t>Chi2 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P - </t>
+  </si>
+  <si>
+    <t>Asym</t>
+  </si>
+  <si>
+    <t>Err Asym</t>
+  </si>
+  <si>
+    <t>Errrr</t>
+  </si>
+  <si>
+    <t>Err2</t>
   </si>
 </sst>
 </file>
@@ -130,10 +179,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,9 +510,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -772,12 +821,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62862744-DD0C-0841-8BAC-5CE30CB0777C}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="400" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -813,10 +864,10 @@
       <c r="A3">
         <v>0.8</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>9.5367399999999998E-5</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>9.5367399999999998E-5</v>
       </c>
     </row>
@@ -824,10 +875,10 @@
       <c r="A4">
         <v>0.78</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>8.3360600000000007E-2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>8.3360600000000007E-2</v>
       </c>
     </row>
@@ -835,10 +886,10 @@
       <c r="A5">
         <v>0.76</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.239372</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.239372</v>
       </c>
     </row>
@@ -846,10 +897,10 @@
       <c r="A6">
         <v>0.74</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>9.5367399999999998E-5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>9.5367399999999998E-5</v>
       </c>
     </row>
@@ -857,11 +908,192 @@
       <c r="A7">
         <v>0.72</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>9.5367399999999998E-5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>9.5367399999999998E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7980EC9C-0349-2E4B-B885-1B1653C07BB8}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="239" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="12" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>3233.77</v>
+      </c>
+      <c r="C2">
+        <v>2507.85</v>
+      </c>
+      <c r="D2">
+        <v>80.009200000000007</v>
+      </c>
+      <c r="E2">
+        <v>79.156999999999996</v>
+      </c>
+      <c r="F2">
+        <v>1.20448</v>
+      </c>
+      <c r="G2">
+        <v>5.35174E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.1145400000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.17250399999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.12642999999999999</v>
+      </c>
+      <c r="K2">
+        <v>1.9732E-2</v>
+      </c>
+      <c r="L2">
+        <f>POWER((J2-AVERAGE(J2:J4)),2)</f>
+        <v>8.7235600000000016E-5</v>
+      </c>
+      <c r="M2">
+        <f>SQRT(L2+L3+L4)/3</f>
+        <v>4.6038734657773616E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1837.06</v>
+      </c>
+      <c r="C3">
+        <v>2328.11</v>
+      </c>
+      <c r="D3">
+        <v>80.819199999999995</v>
+      </c>
+      <c r="E3">
+        <v>83.858999999999995</v>
+      </c>
+      <c r="F3">
+        <v>1.1623000000000001</v>
+      </c>
+      <c r="G3">
+        <v>9.7072900000000004E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.11222</v>
+      </c>
+      <c r="I3">
+        <v>0.177866</v>
+      </c>
+      <c r="J3">
+        <v>0.117893</v>
+      </c>
+      <c r="K3">
+        <v>2.8034199999999999E-2</v>
+      </c>
+      <c r="L3">
+        <f>POWER((J3-AVERAGE(J2:J4)),2)</f>
+        <v>6.4480900000001936E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2250.63</v>
+      </c>
+      <c r="C4">
+        <v>2789.67</v>
+      </c>
+      <c r="D4">
+        <v>81.045199999999994</v>
+      </c>
+      <c r="E4">
+        <v>83.887500000000003</v>
+      </c>
+      <c r="F4">
+        <v>1.1091299999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.185698</v>
+      </c>
+      <c r="H4">
+        <v>1.06535</v>
+      </c>
+      <c r="I4">
+        <v>0.28815299999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.106947</v>
+      </c>
+      <c r="K4">
+        <v>2.3188899999999998E-2</v>
+      </c>
+      <c r="L4">
+        <f>POWER((J4-AVERAGE(J2:J4)),2)</f>
+        <v>1.028804489999997E-4</v>
       </c>
     </row>
   </sheetData>

--- a/ShoulderPos.xlsx
+++ b/ShoulderPos.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dqixol/Documents/LHCb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DBE299-9D44-E544-9435-F85CA43F4475}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D8A30D-9189-674C-A1DB-81A5F4E628C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{85FD9E08-5CA3-114F-BC9C-C98BDDDD9C75}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="23040" windowHeight="15540" activeTab="1" xr2:uid="{85FD9E08-5CA3-114F-BC9C-C98BDDDD9C75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Chi2Pos</t>
   </si>
@@ -104,10 +105,28 @@
     <t>Err Asym</t>
   </si>
   <si>
-    <t>Errrr</t>
-  </si>
-  <si>
-    <t>Err2</t>
+    <t>Err</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>PosX0</t>
+  </si>
+  <si>
+    <t>NegX0</t>
+  </si>
+  <si>
+    <t>chi2pos</t>
+  </si>
+  <si>
+    <t>chi2neg</t>
+  </si>
+  <si>
+    <t>Asymmetry</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -137,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -169,11 +188,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -183,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8B1775-7E41-D242-99C8-494F51C7C2F0}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="230" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A3" zoomScale="230" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,12 +540,12 @@
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -524,8 +555,11 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -536,7 +570,7 @@
         <v>1.1722399999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4900</v>
       </c>
@@ -547,7 +581,7 @@
         <v>1.1165400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4950</v>
       </c>
@@ -558,7 +592,7 @@
         <v>1.1125400000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5020</v>
       </c>
@@ -569,7 +603,7 @@
         <v>1.11222</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5030</v>
       </c>
@@ -580,7 +614,7 @@
         <v>1.11222</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5040</v>
       </c>
@@ -591,7 +625,7 @@
         <v>1.11222</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5050</v>
       </c>
@@ -602,7 +636,7 @@
         <v>1.11222</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>5060</v>
       </c>
@@ -613,7 +647,7 @@
         <v>1.11222</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5070</v>
       </c>
@@ -624,7 +658,7 @@
         <v>1.11222</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5080</v>
       </c>
@@ -635,7 +669,7 @@
         <v>1.11222</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>5090</v>
       </c>
@@ -646,7 +680,7 @@
         <v>1.1122300000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>5100</v>
       </c>
@@ -657,7 +691,7 @@
         <v>1.11225</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>5110</v>
       </c>
@@ -668,7 +702,7 @@
         <v>1.1123700000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5120</v>
       </c>
@@ -692,121 +726,135 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>5132</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.1623000000000001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.12323</v>
-      </c>
+        <v>5130</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>5134</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1.1636200000000001</v>
+        <v>5132</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.1623000000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1.1313</v>
+        <v>1.12323</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>5140</v>
+        <v>5134</v>
       </c>
       <c r="B20" s="3">
-        <v>1.21349</v>
+        <v>1.1636200000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1.1848700000000001</v>
+        <v>1.1313</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>5150</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.32359</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.2362899999999999</v>
-      </c>
+        <v>5136</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>5160</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.3594599999999999</v>
+        <v>5140</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.21349</v>
       </c>
       <c r="C22" s="1">
-        <v>1.28209</v>
+        <v>1.1848700000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>5170</v>
+        <v>5150</v>
       </c>
       <c r="B23" s="1">
-        <v>1.3594599999999999</v>
+        <v>1.32359</v>
       </c>
       <c r="C23" s="1">
-        <v>1.24888</v>
+        <v>1.2362899999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>5180</v>
+        <v>5160</v>
       </c>
       <c r="B24" s="1">
         <v>1.3594599999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1.27725</v>
+        <v>1.28209</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>5190</v>
+        <v>5170</v>
       </c>
       <c r="B25" s="1">
         <v>1.3594599999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1.28209</v>
+        <v>1.24888</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>5200</v>
+        <v>5180</v>
       </c>
       <c r="B26" s="1">
         <v>1.3594599999999999</v>
       </c>
       <c r="C26" s="1">
+        <v>1.27725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>5190</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.3594599999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.28209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>5200</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.3594599999999999</v>
+      </c>
+      <c r="C28" s="1">
         <v>1.2821</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -818,6 +866,321 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306602EE-9BB3-084B-994B-B3A702C2CF8F}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5132</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <v>1.06534</v>
+      </c>
+      <c r="D2">
+        <v>1.1091299999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.10682800000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5132</v>
+      </c>
+      <c r="B3">
+        <v>5010</v>
+      </c>
+      <c r="C3">
+        <v>1.06534</v>
+      </c>
+      <c r="D3">
+        <v>1.1091299999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.10682999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5132</v>
+      </c>
+      <c r="B4">
+        <v>5020</v>
+      </c>
+      <c r="C4">
+        <v>1.06534</v>
+      </c>
+      <c r="D4">
+        <v>1.1091299999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.106876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5132</v>
+      </c>
+      <c r="B5">
+        <v>5030</v>
+      </c>
+      <c r="C5">
+        <v>1.06535</v>
+      </c>
+      <c r="D5">
+        <v>1.1091299999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.106876</v>
+      </c>
+      <c r="F5">
+        <f>MAX(E5:E7)-MIN(E5:E7)</f>
+        <v>9.0000000000006741E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5132</v>
+      </c>
+      <c r="B6">
+        <v>5040</v>
+      </c>
+      <c r="C6">
+        <v>1.06535</v>
+      </c>
+      <c r="D6">
+        <v>1.1091299999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.106902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5132</v>
+      </c>
+      <c r="B7">
+        <v>5050</v>
+      </c>
+      <c r="C7">
+        <v>1.06535</v>
+      </c>
+      <c r="D7">
+        <v>1.1091299999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.10696600000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5132</v>
+      </c>
+      <c r="B8">
+        <v>5060</v>
+      </c>
+      <c r="C8">
+        <v>1.0653600000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.1091299999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.106957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5132</v>
+      </c>
+      <c r="B9">
+        <v>5070</v>
+      </c>
+      <c r="C9">
+        <v>1.0653699999999999</v>
+      </c>
+      <c r="D9">
+        <v>1.1091299999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.107011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5132</v>
+      </c>
+      <c r="B10">
+        <v>5080</v>
+      </c>
+      <c r="C10">
+        <v>1.11849</v>
+      </c>
+      <c r="D10">
+        <v>1.1091299999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.102129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5126</v>
+      </c>
+      <c r="B12">
+        <v>5040</v>
+      </c>
+      <c r="C12">
+        <v>1.06535</v>
+      </c>
+      <c r="D12">
+        <v>1.11113</v>
+      </c>
+      <c r="E12">
+        <v>0.106945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5128</v>
+      </c>
+      <c r="B13">
+        <v>5040</v>
+      </c>
+      <c r="C13">
+        <v>1.06535</v>
+      </c>
+      <c r="D13">
+        <v>1.1102399999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.10689700000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5130</v>
+      </c>
+      <c r="B14">
+        <v>5040</v>
+      </c>
+      <c r="C14">
+        <v>1.06535</v>
+      </c>
+      <c r="D14">
+        <v>1.1094299999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.106876</v>
+      </c>
+      <c r="F14">
+        <f>D14-D15</f>
+        <v>2.9999999999996696E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5132</v>
+      </c>
+      <c r="B15">
+        <v>5040</v>
+      </c>
+      <c r="C15">
+        <v>1.06535</v>
+      </c>
+      <c r="D15">
+        <v>1.1091299999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.106902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5134</v>
+      </c>
+      <c r="B16">
+        <v>5040</v>
+      </c>
+      <c r="C16">
+        <v>1.06535</v>
+      </c>
+      <c r="D16">
+        <v>1.11093</v>
+      </c>
+      <c r="E16">
+        <v>0.107118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5136</v>
+      </c>
+      <c r="B17">
+        <v>5040</v>
+      </c>
+      <c r="C17">
+        <v>1.06535</v>
+      </c>
+      <c r="D17">
+        <v>1.1201399999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.10757899999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5138</v>
+      </c>
+      <c r="B18">
+        <v>5040</v>
+      </c>
+      <c r="C18">
+        <v>1.06535</v>
+      </c>
+      <c r="D18">
+        <v>1.13852</v>
+      </c>
+      <c r="E18">
+        <v>0.108557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62862744-DD0C-0841-8BAC-5CE30CB0777C}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -920,12 +1283,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7980EC9C-0349-2E4B-B885-1B1653C07BB8}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="239" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="G1" zoomScale="239" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,7 +1297,7 @@
     <col min="12" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -969,13 +1332,10 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1009,16 +1369,8 @@
       <c r="K2">
         <v>1.9732E-2</v>
       </c>
-      <c r="L2">
-        <f>POWER((J2-AVERAGE(J2:J4)),2)</f>
-        <v>8.7235600000000016E-5</v>
-      </c>
-      <c r="M2">
-        <f>SQRT(L2+L3+L4)/3</f>
-        <v>4.6038734657773616E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1052,12 +1404,8 @@
       <c r="K3">
         <v>2.8034199999999999E-2</v>
       </c>
-      <c r="L3">
-        <f>POWER((J3-AVERAGE(J2:J4)),2)</f>
-        <v>6.4480900000001936E-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1092,8 +1440,8 @@
         <v>2.3188899999999998E-2</v>
       </c>
       <c r="L4">
-        <f>POWER((J4-AVERAGE(J2:J4)),2)</f>
-        <v>1.028804489999997E-4</v>
+        <f>J3-J4</f>
+        <v>1.0945999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/ShoulderPos.xlsx
+++ b/ShoulderPos.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dqixol/Documents/LHCb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D8A30D-9189-674C-A1DB-81A5F4E628C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFF8BC1-D3AD-D24C-A5FD-2F0A404EE54F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="23040" windowHeight="15540" activeTab="1" xr2:uid="{85FD9E08-5CA3-114F-BC9C-C98BDDDD9C75}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{85FD9E08-5CA3-114F-BC9C-C98BDDDD9C75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -210,10 +211,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8B1775-7E41-D242-99C8-494F51C7C2F0}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="230" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="230" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -541,9 +542,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -555,7 +556,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -870,7 +871,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1103,8 +1104,8 @@
         <v>0.106876</v>
       </c>
       <c r="F14">
-        <f>D14-D15</f>
-        <v>2.9999999999996696E-4</v>
+        <f>MAX(E14:E16)-MIN(E14:E16)</f>
+        <v>2.420000000000061E-4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1181,11 +1182,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52489564-9F70-0C47-A734-6553310DB384}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62862744-DD0C-0841-8BAC-5CE30CB0777C}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="400" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="231" workbookViewId="0">
+      <selection activeCell="C5" sqref="A3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1283,12 +1309,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7980EC9C-0349-2E4B-B885-1B1653C07BB8}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="239" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="H1" zoomScale="239" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
